--- a/lab1/dados/lab_2/1_6_4.xlsx
+++ b/lab1/dados/lab_2/1_6_4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFB91AF-6025-429F-B8F4-B09CF19093C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF613F7E-8065-406C-AF21-A74201FBED9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R9_69" sheetId="4" r:id="rId1"/>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7600,7 +7600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
